--- a/QRET_MechBOM_2019_20.xlsx
+++ b/QRET_MechBOM_2019_20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\4th Year\QRET\2019_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apps\GitHub Desktop\MechComponents_02102012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1536E826-E129-470F-BC0F-D216C98F6742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A5997-848E-4A83-83B3-33B0E0F2180B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
+    <workbookView xWindow="-12684" yWindow="5946" windowWidth="17280" windowHeight="9444" activeTab="1" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Avionics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
   <si>
     <t>Component</t>
   </si>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>QRET Design Bay - i.e where in the room is it, what drawer, what shelf, etc...</t>
+  </si>
+  <si>
+    <t>Paulin 1/4-inch-20 Nylon Insert Stop Nut - Pozi-Lok - Zinc Plated - UNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeDepot </t>
+  </si>
+  <si>
+    <t>https://www.homedepot.ca/product/paulin-1-4-inch-20-nylon-insert-stop-nut-pozi-lok-zinc-plated-unc/1000122477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>pick up on site</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>0.19 X 16</t>
+  </si>
+  <si>
+    <t>Installed under the payload bottom bulkhead</t>
   </si>
 </sst>
 </file>
@@ -113,9 +137,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +167,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,11 +220,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -516,24 +553,24 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1015625" customWidth="1"/>
+    <col min="4" max="4" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.3125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.20703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.3125" customWidth="1"/>
+    <col min="16" max="16" width="16.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -575,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="79.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -631,30 +668,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879E5D4B-5059-4B9C-B6B8-4676A482EC36}">
-  <dimension ref="C4:Q5"/>
+  <dimension ref="C4:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.33203125" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.20703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7890625" customWidth="1"/>
+    <col min="12" max="12" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.3125" customWidth="1"/>
+    <col min="17" max="17" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -696,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="90" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
@@ -741,11 +778,132 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="3:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3">
+        <v>204.1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>0.19</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{3C4D28A9-AFDA-40BD-84F4-B12A90E84DF6}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{5A171636-295F-435A-BA30-A2D97DA5F17A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -753,24 +911,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D421F24-F2B9-4156-970A-2DB29852D92A}">
   <dimension ref="C4:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.88671875" customWidth="1"/>
-    <col min="17" max="17" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="30.5234375" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.41796875" customWidth="1"/>
+    <col min="12" max="12" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.89453125" customWidth="1"/>
+    <col min="17" max="17" width="22.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -812,7 +970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
@@ -873,20 +1031,20 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7890625" customWidth="1"/>
+    <col min="12" max="12" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.20703125" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -928,7 +1086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="82.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>

--- a/QRET_MechBOM_2019_20.xlsx
+++ b/QRET_MechBOM_2019_20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\4th Year\QRET\2019_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\GitHub\Repository Clone\MechComponents_02102012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1536E826-E129-470F-BC0F-D216C98F6742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC4362-3E66-43C0-A78B-41E914773752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Avionics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>Component</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>QRET Design Bay - i.e where in the room is it, what drawer, what shelf, etc...</t>
+  </si>
+  <si>
+    <t>Peregrine Raptor CO2 ejection system</t>
+  </si>
+  <si>
+    <t>103 + 140 (33g cartridge)</t>
+  </si>
+  <si>
+    <t>Fruity Chutes</t>
+  </si>
+  <si>
+    <t>https://fruitychutes.com/buyachute/co2-ejection-system-c-20/peregrine-raptor-co2-system-kit-23-to-45-gram-p-183.html?zenid=4fkTp99ZfvLk4qG9aXr7y2</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -175,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +210,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -510,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E661-9377-44F6-A771-BB2163B533D9}">
-  <dimension ref="B4:P5"/>
+  <dimension ref="B4:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,12 +640,36 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="9">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{904AD38D-6E42-439A-8223-D01914CDEAD1}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{A7148C3D-A1C5-49A2-9E66-C50035FE847D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -753,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D421F24-F2B9-4156-970A-2DB29852D92A}">
   <dimension ref="C4:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/QRET_MechBOM_2019_20.xlsx
+++ b/QRET_MechBOM_2019_20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\GitHub\Repository Clone\MechComponents_02102012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apps\GitHub Desktop\MechComponents_02102012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC4362-3E66-43C0-A78B-41E914773752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353ADE8-976E-4A07-A71B-7051CF69E39F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
+    <workbookView xWindow="13410" yWindow="3354" windowWidth="17280" windowHeight="9444" activeTab="1" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Avionics" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="33">
   <si>
     <t>Component</t>
   </si>
@@ -121,14 +123,27 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.ca/product/paulin-1-4-inch-20-nylon-insert-stop-nut-pozi-lok-zinc-plated-unc/1000122477</t>
+  </si>
+  <si>
+    <t>Paulin</t>
+  </si>
+  <si>
+    <t>1/4-inch-20 Nylon Insert Stop Nut - Pozi-Lok - Zinc Plated - UNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 lb or 204.1166g </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -190,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,7 +219,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -214,6 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -532,28 +548,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E661-9377-44F6-A771-BB2163B533D9}">
   <dimension ref="B4:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1015625" customWidth="1"/>
+    <col min="4" max="4" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.3125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.20703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.3125" customWidth="1"/>
+    <col min="16" max="16" width="16.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -595,7 +611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="79.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -640,7 +656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>24</v>
       </c>
@@ -675,30 +691,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879E5D4B-5059-4B9C-B6B8-4676A482EC36}">
-  <dimension ref="C4:Q5"/>
+  <dimension ref="C4:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.33203125" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.62890625" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.20703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7890625" customWidth="1"/>
+    <col min="12" max="12" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.3125" customWidth="1"/>
+    <col min="17" max="17" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -740,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="90" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
@@ -783,11 +799,39 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="L6" s="10">
+        <f>I6*J6</f>
+        <v>4.5600000000000005</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{3C4D28A9-AFDA-40BD-84F4-B12A90E84DF6}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{2C52A3E4-1BC4-408E-88A2-FC8155D45B70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -801,20 +845,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.88671875" customWidth="1"/>
-    <col min="17" max="17" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="30.5234375" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.41796875" customWidth="1"/>
+    <col min="12" max="12" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.89453125" customWidth="1"/>
+    <col min="17" max="17" width="22.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -856,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
@@ -917,20 +961,20 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7890625" customWidth="1"/>
+    <col min="12" max="12" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.20703125" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="82.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>

--- a/QRET_MechBOM_2019_20.xlsx
+++ b/QRET_MechBOM_2019_20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\GitHub\Repository Clone\MechComponents_02102012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jshek\OneDrive\Documents\GitHub\MechComponents_02102012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC4362-3E66-43C0-A78B-41E914773752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9016A5C8-39B9-4949-9EF4-762CF8C275CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Avionics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>Component</t>
   </si>
@@ -121,16 +121,96 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>High-Strength Steel Threaded Rod - 
+1/4"-20 Thread Size, 6 Feet Long</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/90322a659</t>
+  </si>
+  <si>
+    <t>3D Printed</t>
+  </si>
+  <si>
+    <t>~28</t>
+  </si>
+  <si>
+    <t>Exact number depends on # of PCBs</t>
+  </si>
+  <si>
+    <t>Main PCB spacers</t>
+  </si>
+  <si>
+    <t>Battery PCB spacers</t>
+  </si>
+  <si>
+    <t>Medium-Strength Steel Hex Nut - Grade 5, Zinc-Plated, 1/4"-20 Thread Size</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/95462a029</t>
+  </si>
+  <si>
+    <t>We may have these from last year</t>
+  </si>
+  <si>
+    <t>316 Stainless Steel Washer - 
+for 1/4" Screw Size, 0.281" ID, 0.625" OD</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/90107a029</t>
+  </si>
+  <si>
+    <t>Spacer caps</t>
+  </si>
+  <si>
+    <t>9V Battery Holder</t>
+  </si>
+  <si>
+    <t>digikey.ca</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/products/en?keywords=708-1409-ND</t>
+  </si>
+  <si>
+    <t>6 pin connector</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/amphenol-sine-systems-corp/RTS710N6S03/889-1380-ND/6820719</t>
+  </si>
+  <si>
+    <t>10 pin connector</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/amphenol-sine-systems-corp/RTS712N10S03/889-1400-ND/6820739</t>
+  </si>
+  <si>
+    <t>2 battery holders</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/keystone-electronics/1049P/36-1049P-ND/4499390</t>
+  </si>
+  <si>
+    <t>9V Battery Holder Holder</t>
+  </si>
+  <si>
+    <t>3d Printed?</t>
+  </si>
+  <si>
+    <t>This is the red component that still
+ needs to be figured out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +242,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -186,11 +279,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,9 +308,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -530,30 +635,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E661-9377-44F6-A771-BB2163B533D9}">
-  <dimension ref="B4:P6"/>
+  <dimension ref="B4:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N18" sqref="N17:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -595,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -614,7 +719,7 @@
       <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="12">
         <v>7.78</v>
       </c>
       <c r="I5" s="3">
@@ -640,7 +745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>24</v>
       </c>
@@ -656,10 +761,223 @@
       <c r="G6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <v>150</v>
       </c>
       <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="13">
+        <v>14.91</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>3.7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="13">
+        <v>4.88</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>1.3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="13">
+        <v>7.11</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="11">
+        <v>6.54</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" s="11"/>
+      <c r="N14" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="11">
+        <v>9.68</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="11">
+        <v>10.07</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="11">
+        <v>7.12</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
     </row>
@@ -667,9 +985,16 @@
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{904AD38D-6E42-439A-8223-D01914CDEAD1}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{A7148C3D-A1C5-49A2-9E66-C50035FE847D}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{9D4F222D-9D80-406C-904B-7160E574F1C5}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{034079BE-4191-49F2-9A36-C03870EEB21B}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{4312A604-1997-4270-81C4-3B44DAC0E643}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{4C15249E-766D-4110-816B-8CA8A26935F1}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{F7A9F219-EA1D-4F20-8872-EF2480010277}"/>
+    <hyperlink ref="F16" r:id="rId8" xr:uid="{CFB7BA88-D23E-48D2-974E-001EABFE3186}"/>
+    <hyperlink ref="F17" r:id="rId9" xr:uid="{0AB0E8AC-3EF2-4EFE-8EAF-5286D3510CC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -681,24 +1006,24 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.33203125" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -740,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
@@ -801,20 +1126,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.88671875" customWidth="1"/>
-    <col min="17" max="17" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -856,7 +1181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
@@ -917,20 +1242,20 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.28515625" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>

--- a/QRET_MechBOM_2019_20.xlsx
+++ b/QRET_MechBOM_2019_20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jshek\OneDrive\Documents\GitHub\MechComponents_02102012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\GitHub\Repository Clone\MechComponents_02102012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9016A5C8-39B9-4949-9EF4-762CF8C275CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52734D0A-7771-4EB0-A49D-1BBCB24A6042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Avionics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
   <si>
     <t>Component</t>
   </si>
@@ -199,6 +199,66 @@
   <si>
     <t>This is the red component that still
  needs to be figured out</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/92010a322</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$10.54 + </t>
+  </si>
+  <si>
+    <t>We'll check the design bay for a similar flat head screw. If we have something similar already, we'll make the necessary adjustments to the motor coupler and thrust plate to avoid the unecessary cost. Otherwise, we'll procede with the order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passivated 18-8 Stainless Steel Phillips Flat Head Screw, M5 x 0.8mm thread, 12mm long </t>
+  </si>
+  <si>
+    <t>316 Stainless Steel Ultra-Low-Profile Socket Head Screw, M5 x 0.8mm thread, 8mm long</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/91223a428</t>
+  </si>
+  <si>
+    <t>93.36 + shipping</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We'll check the design bay for a similar flat head screw. If we have something similar already, we'll make the necessary adjustments to the motor coupler and thrust plate to avoid the unecessary cost. Otherwise, we'll procede with the order. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Currently Searching for alternatives, citing cost</t>
+    </r>
+  </si>
+  <si>
+    <t>Socket Head Screw for lower motor retaining structure and mating plate</t>
+  </si>
+  <si>
+    <t>We should be able to find the screws we used last year for the lower retaining structure as the part hasn't changed. There should be no need to order new screws.</t>
+  </si>
+  <si>
+    <t>Steel Eyebolt with Shoulder - for Lifting, 3/8" - 16 thread size, 1-1/4" thread length</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/3014t471</t>
+  </si>
+  <si>
+    <t>$4.09 +</t>
+  </si>
+  <si>
+    <t>Will be installed through the thrust plate, into the motor casing. Rated for 1300 lbs (vertical capacity).</t>
   </si>
 </sst>
 </file>
@@ -208,9 +268,9 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +315,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +357,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,11 +387,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -637,28 +716,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E661-9377-44F6-A771-BB2163B533D9}">
   <dimension ref="B4:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N18" sqref="N17:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -700,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -745,7 +824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>24</v>
       </c>
@@ -768,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
@@ -788,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>34</v>
       </c>
@@ -806,7 +885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>35</v>
       </c>
@@ -821,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>41</v>
       </c>
@@ -836,7 +915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
@@ -862,7 +941,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>39</v>
       </c>
@@ -888,7 +967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -908,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -921,7 +1000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -941,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>47</v>
       </c>
@@ -961,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>49</v>
       </c>
@@ -1006,24 +1085,24 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1120,26 +1199,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D421F24-F2B9-4156-970A-2DB29852D92A}">
-  <dimension ref="C4:Q5"/>
+  <dimension ref="C4:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.21875" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1181,11 +1260,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="3:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3">
@@ -1226,11 +1305,148 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="3:17" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="5">
+        <v>10.54</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3.89</v>
+      </c>
+      <c r="J7" s="3">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4.09</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{D1C0CE8A-F603-45C7-9779-7F7451F9B7C1}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{95C08915-379D-4B4C-84A2-CBA93F112013}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{31EE580D-A87D-43B8-8D60-FE8DA4CF0CE8}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{F493C577-A410-4CC8-BEDD-7873CB81E2BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1242,20 +1458,20 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.33203125" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>

--- a/QRET_MechBOM_2019_20.xlsx
+++ b/QRET_MechBOM_2019_20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\GitHub\Repository Clone\MechComponents_02102012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52734D0A-7771-4EB0-A49D-1BBCB24A6042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274A2959-DFBB-4EAE-B226-9BC5C31F231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Avionics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
   <si>
     <t>Component</t>
   </si>
@@ -259,6 +259,24 @@
   </si>
   <si>
     <t>Will be installed through the thrust plate, into the motor casing. Rated for 1300 lbs (vertical capacity).</t>
+  </si>
+  <si>
+    <t>3/4"-16 x 3/4" length Steel Eyebolt with shoulder</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/3014T954</t>
+  </si>
+  <si>
+    <t>This eyebolt is for the bottom avionics bulkhead and is rated for 1300 lbs.</t>
+  </si>
+  <si>
+    <t>Medium-Strength Steel Hex Nut - Grade 5, Zinc-Plated, 3/8"-16 thread size</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/95462a031</t>
+  </si>
+  <si>
+    <t>We need one nut to fasten the lower avionics bulkhead eyebolt</t>
   </si>
 </sst>
 </file>
@@ -357,7 +375,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -714,15 +733,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E661-9377-44F6-A771-BB2163B533D9}">
-  <dimension ref="B4:P17"/>
+  <dimension ref="B4:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N18" sqref="N17:N18"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
     <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
@@ -1040,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>49</v>
       </c>
@@ -1058,6 +1077,52 @@
       </c>
       <c r="I17">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="16">
+        <v>3.38</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="16">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1071,9 +1136,11 @@
     <hyperlink ref="F15" r:id="rId7" xr:uid="{F7A9F219-EA1D-4F20-8872-EF2480010277}"/>
     <hyperlink ref="F16" r:id="rId8" xr:uid="{CFB7BA88-D23E-48D2-974E-001EABFE3186}"/>
     <hyperlink ref="F17" r:id="rId9" xr:uid="{0AB0E8AC-3EF2-4EFE-8EAF-5286D3510CC6}"/>
+    <hyperlink ref="F18" r:id="rId10" xr:uid="{11E6C967-C354-4523-89D4-7DD93E383EFD}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{969AC167-35A6-4BAE-9DFA-C9FB069852C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1201,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D421F24-F2B9-4156-970A-2DB29852D92A}">
   <dimension ref="C4:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/QRET_MechBOM_2019_20.xlsx
+++ b/QRET_MechBOM_2019_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\GitHub\Repository Clone\MechComponents_02102012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274A2959-DFBB-4EAE-B226-9BC5C31F231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D628A40-BE1A-43BF-B61B-0A088DFC960E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
   <si>
     <t>Component</t>
   </si>
@@ -276,7 +276,49 @@
     <t>https://www.mcmaster.com/95462a031</t>
   </si>
   <si>
-    <t>We need one nut to fasten the lower avionics bulkhead eyebolt</t>
+    <t>5/16"-18 x 1-1/8" thread length, Steel Eyebolt with shoulder</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/3014t46</t>
+  </si>
+  <si>
+    <t>This eyebolt is for the upper avionics bulkhead. It is rated for 900 lbs.</t>
+  </si>
+  <si>
+    <t>Medium-Strength Steel Hex Nut - Grade 5, Zinc-Plated, 5/16"-18</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/95462a030</t>
+  </si>
+  <si>
+    <r>
+      <t>We need one nut to fasten the lower avionics bulkhead eyebolt **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check Home Depot - consider washer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nut required for the upper avionics bulkhead. **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Home Depot - consider washer</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -733,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E661-9377-44F6-A771-BB2163B533D9}">
-  <dimension ref="B4:P19"/>
+  <dimension ref="B4:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1164,53 @@
         <v>100</v>
       </c>
       <c r="N19" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="9" t="s">
         <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="16">
+        <v>3.45</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="16">
+        <v>7.18</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1138,9 +1226,11 @@
     <hyperlink ref="F17" r:id="rId9" xr:uid="{0AB0E8AC-3EF2-4EFE-8EAF-5286D3510CC6}"/>
     <hyperlink ref="F18" r:id="rId10" xr:uid="{11E6C967-C354-4523-89D4-7DD93E383EFD}"/>
     <hyperlink ref="F19" r:id="rId11" xr:uid="{969AC167-35A6-4BAE-9DFA-C9FB069852C4}"/>
+    <hyperlink ref="F20" r:id="rId12" xr:uid="{0DEB437A-3E7A-491A-94A7-E3E4ABF29E20}"/>
+    <hyperlink ref="F21" r:id="rId13" xr:uid="{2494426A-B9A9-4CFA-B0D9-96EE1150F490}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/QRET_MechBOM_2019_20.xlsx
+++ b/QRET_MechBOM_2019_20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\GitHub\Repository Clone\MechComponents_02102012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jshek\OneDrive\Documents\GitHub\MechComponents_02102012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D628A40-BE1A-43BF-B61B-0A088DFC960E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C70E14-5392-401F-AF4E-A858B853D949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Avionics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>Component</t>
   </si>
@@ -151,9 +151,6 @@
     <t>https://www.mcmaster.com/95462a029</t>
   </si>
   <si>
-    <t>We may have these from last year</t>
-  </si>
-  <si>
     <t>316 Stainless Steel Washer - 
 for 1/4" Screw Size, 0.281" ID, 0.625" OD</t>
   </si>
@@ -192,13 +189,6 @@
   </si>
   <si>
     <t>9V Battery Holder Holder</t>
-  </si>
-  <si>
-    <t>3d Printed?</t>
-  </si>
-  <si>
-    <t>This is the red component that still
- needs to be figured out</t>
   </si>
   <si>
     <t>.</t>
@@ -319,6 +309,30 @@
       </rPr>
       <t>Home Depot - consider washer</t>
     </r>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>QRET Design Bay</t>
+  </si>
+  <si>
+    <t>Using last years</t>
+  </si>
+  <si>
+    <t>3d Printed</t>
+  </si>
+  <si>
+    <t>Red component Jamie is working on</t>
+  </si>
+  <si>
+    <t>Alloy Steel Low-Profile Socket Head Screw - Hex Drive, Black Oxide, 6-32 Thread Size, 1/2" Long</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/92220a143</t>
+  </si>
+  <si>
+    <t>Radial screws for the bulk heads</t>
   </si>
 </sst>
 </file>
@@ -775,30 +789,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E661-9377-44F6-A771-BB2163B533D9}">
-  <dimension ref="B4:P21"/>
+  <dimension ref="B4:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -840,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -885,7 +899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>24</v>
       </c>
@@ -908,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
@@ -928,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>34</v>
       </c>
@@ -946,7 +960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>35</v>
       </c>
@@ -961,9 +975,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
@@ -976,7 +990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
@@ -990,7 +1004,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H11" s="13">
         <v>4.88</v>
@@ -999,12 +1013,15 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C12" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="D12">
         <v>1.3</v>
@@ -1013,10 +1030,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H12" s="13">
         <v>7.11</v>
@@ -1025,18 +1042,21 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
@@ -1048,28 +1068,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7"/>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" s="11"/>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="N14" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
@@ -1081,15 +1107,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="G16" t="s">
         <v>28</v>
@@ -1101,15 +1127,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>
@@ -1121,15 +1147,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
         <v>28</v>
@@ -1141,18 +1167,18 @@
         <v>1</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
         <v>28</v>
@@ -1164,18 +1190,18 @@
         <v>100</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
         <v>28</v>
@@ -1187,18 +1213,18 @@
         <v>1</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
         <v>28</v>
@@ -1210,7 +1236,30 @@
         <v>100</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="16">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1228,9 +1277,10 @@
     <hyperlink ref="F19" r:id="rId11" xr:uid="{969AC167-35A6-4BAE-9DFA-C9FB069852C4}"/>
     <hyperlink ref="F20" r:id="rId12" xr:uid="{0DEB437A-3E7A-491A-94A7-E3E4ABF29E20}"/>
     <hyperlink ref="F21" r:id="rId13" xr:uid="{2494426A-B9A9-4CFA-B0D9-96EE1150F490}"/>
+    <hyperlink ref="F22" r:id="rId14" xr:uid="{8B922BB3-9529-4525-BE2C-DF2461C425C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -1242,24 +1292,24 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.33203125" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1362,20 +1412,20 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.21875" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1462,21 +1512,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I6" s="5">
         <v>10.54</v>
@@ -1485,32 +1535,32 @@
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I7" s="5">
         <v>3.89</v>
@@ -1519,32 +1569,32 @@
         <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="3:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I8" s="5">
         <v>4.09</v>
@@ -1553,46 +1603,46 @@
         <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="3:17" ht="57.6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" ht="60" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1615,20 +1665,20 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.28515625" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
